--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnfsf13-Tnfrsf1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnfsf13-Tnfrsf1a.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.291812</v>
+        <v>0.5347833333333334</v>
       </c>
       <c r="H2">
-        <v>0.875436</v>
+        <v>1.60435</v>
       </c>
       <c r="I2">
-        <v>0.1179458223311005</v>
+        <v>0.196822066153855</v>
       </c>
       <c r="J2">
-        <v>0.1179458223311005</v>
+        <v>0.196822066153855</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>73.913163</v>
+        <v>19.98610666666667</v>
       </c>
       <c r="N2">
-        <v>221.739489</v>
+        <v>59.95832</v>
       </c>
       <c r="O2">
-        <v>0.6096331558809398</v>
+        <v>0.2969043109767812</v>
       </c>
       <c r="P2">
-        <v>0.6096331558809398</v>
+        <v>0.2969043109767812</v>
       </c>
       <c r="Q2">
-        <v>21.568747921356</v>
+        <v>10.68823674355556</v>
       </c>
       <c r="R2">
-        <v>194.118731292204</v>
+        <v>96.19413069200002</v>
       </c>
       <c r="S2">
-        <v>0.07190368389068143</v>
+        <v>0.05843731993643678</v>
       </c>
       <c r="T2">
-        <v>0.07190368389068141</v>
+        <v>0.05843731993643677</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.291812</v>
+        <v>0.5347833333333334</v>
       </c>
       <c r="H3">
-        <v>0.875436</v>
+        <v>1.60435</v>
       </c>
       <c r="I3">
-        <v>0.1179458223311005</v>
+        <v>0.196822066153855</v>
       </c>
       <c r="J3">
-        <v>0.1179458223311005</v>
+        <v>0.196822066153855</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>94.201697</v>
       </c>
       <c r="O3">
-        <v>0.2589907557307037</v>
+        <v>0.4664722083712238</v>
       </c>
       <c r="P3">
-        <v>0.2589907557307037</v>
+        <v>0.4664722083712239</v>
       </c>
       <c r="Q3">
-        <v>9.163061868321334</v>
+        <v>16.79249917577222</v>
       </c>
       <c r="R3">
-        <v>82.46755681489199</v>
+        <v>151.13249258195</v>
       </c>
       <c r="S3">
-        <v>0.03054687766081103</v>
+        <v>0.09181202385497585</v>
       </c>
       <c r="T3">
-        <v>0.03054687766081102</v>
+        <v>0.09181202385497586</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.291812</v>
+        <v>0.5347833333333334</v>
       </c>
       <c r="H4">
-        <v>0.875436</v>
+        <v>1.60435</v>
       </c>
       <c r="I4">
-        <v>0.1179458223311005</v>
+        <v>0.196822066153855</v>
       </c>
       <c r="J4">
-        <v>0.1179458223311005</v>
+        <v>0.196822066153855</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>47.784912</v>
       </c>
       <c r="O4">
-        <v>0.1313760883883565</v>
+        <v>0.236623480651995</v>
       </c>
       <c r="P4">
-        <v>0.1313760883883564</v>
+        <v>0.236623480651995</v>
       </c>
       <c r="Q4">
-        <v>4.648070246848</v>
+        <v>8.518191507466668</v>
       </c>
       <c r="R4">
-        <v>41.832632221632</v>
+        <v>76.66372356720001</v>
       </c>
       <c r="S4">
-        <v>0.01549526077960805</v>
+        <v>0.04657272236244239</v>
       </c>
       <c r="T4">
-        <v>0.01549526077960804</v>
+        <v>0.04657272236244239</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.542198</v>
       </c>
       <c r="I5">
-        <v>0.2077773947009016</v>
+        <v>0.1891972429821067</v>
       </c>
       <c r="J5">
-        <v>0.2077773947009016</v>
+        <v>0.1891972429821067</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>73.913163</v>
+        <v>19.98610666666667</v>
       </c>
       <c r="N5">
-        <v>221.739489</v>
+        <v>59.95832</v>
       </c>
       <c r="O5">
-        <v>0.6096331558809398</v>
+        <v>0.2969043109767812</v>
       </c>
       <c r="P5">
-        <v>0.6096331558809398</v>
+        <v>0.2969043109767812</v>
       </c>
       <c r="Q5">
-        <v>37.996244050758</v>
+        <v>10.27417790970667</v>
       </c>
       <c r="R5">
-        <v>341.966196456822</v>
+        <v>92.46760118736</v>
       </c>
       <c r="S5">
-        <v>0.1266679888522303</v>
+        <v>0.05617347706630905</v>
       </c>
       <c r="T5">
-        <v>0.1266679888522303</v>
+        <v>0.05617347706630904</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.542198</v>
       </c>
       <c r="I6">
-        <v>0.2077773947009016</v>
+        <v>0.1891972429821067</v>
       </c>
       <c r="J6">
-        <v>0.2077773947009016</v>
+        <v>0.1891972429821067</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>94.201697</v>
       </c>
       <c r="O6">
-        <v>0.2589907557307037</v>
+        <v>0.4664722083712238</v>
       </c>
       <c r="P6">
-        <v>0.2589907557307037</v>
+        <v>0.4664722083712239</v>
       </c>
       <c r="Q6">
         <v>16.14196319000067</v>
@@ -818,10 +818,10 @@
         <v>145.277668710006</v>
       </c>
       <c r="S6">
-        <v>0.05381242447734323</v>
+        <v>0.08825525575161033</v>
       </c>
       <c r="T6">
-        <v>0.05381242447734322</v>
+        <v>0.08825525575161035</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.542198</v>
       </c>
       <c r="I7">
-        <v>0.2077773947009016</v>
+        <v>0.1891972429821067</v>
       </c>
       <c r="J7">
-        <v>0.2077773947009016</v>
+        <v>0.1891972429821067</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>47.784912</v>
       </c>
       <c r="O7">
-        <v>0.1313760883883565</v>
+        <v>0.236623480651995</v>
       </c>
       <c r="P7">
-        <v>0.1313760883883564</v>
+        <v>0.236623480651995</v>
       </c>
       <c r="Q7">
         <v>8.188199524064</v>
@@ -880,10 +880,10 @@
         <v>73.69379571657599</v>
       </c>
       <c r="S7">
-        <v>0.02729698137132808</v>
+        <v>0.04476851016418731</v>
       </c>
       <c r="T7">
-        <v>0.02729698137132807</v>
+        <v>0.04476851016418732</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>5.004723</v>
       </c>
       <c r="I8">
-        <v>0.674276782967998</v>
+        <v>0.6139806908640383</v>
       </c>
       <c r="J8">
-        <v>0.674276782967998</v>
+        <v>0.6139806908640382</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>73.913163</v>
+        <v>19.98610666666667</v>
       </c>
       <c r="N8">
-        <v>221.739489</v>
+        <v>59.95832</v>
       </c>
       <c r="O8">
-        <v>0.6096331558809398</v>
+        <v>0.2969043109767812</v>
       </c>
       <c r="P8">
-        <v>0.6096331558809398</v>
+        <v>0.2969043109767812</v>
       </c>
       <c r="Q8">
-        <v>123.304968956283</v>
+        <v>33.34164257170667</v>
       </c>
       <c r="R8">
-        <v>1109.744720606547</v>
+        <v>300.07478314536</v>
       </c>
       <c r="S8">
-        <v>0.4110614831380281</v>
+        <v>0.1822935139740354</v>
       </c>
       <c r="T8">
-        <v>0.4110614831380281</v>
+        <v>0.1822935139740354</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>5.004723</v>
       </c>
       <c r="I9">
-        <v>0.674276782967998</v>
+        <v>0.6139806908640383</v>
       </c>
       <c r="J9">
-        <v>0.674276782967998</v>
+        <v>0.6139806908640382</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>94.201697</v>
       </c>
       <c r="O9">
-        <v>0.2589907557307037</v>
+        <v>0.4664722083712238</v>
       </c>
       <c r="P9">
-        <v>0.2589907557307037</v>
+        <v>0.4664722083712239</v>
       </c>
       <c r="Q9">
         <v>52.38371106832567</v>
@@ -1004,10 +1004,10 @@
         <v>471.453399614931</v>
       </c>
       <c r="S9">
-        <v>0.1746314535925495</v>
+        <v>0.2864049287646376</v>
       </c>
       <c r="T9">
-        <v>0.1746314535925495</v>
+        <v>0.2864049287646376</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>5.004723</v>
       </c>
       <c r="I10">
-        <v>0.674276782967998</v>
+        <v>0.6139806908640383</v>
       </c>
       <c r="J10">
-        <v>0.674276782967998</v>
+        <v>0.6139806908640382</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>47.784912</v>
       </c>
       <c r="O10">
-        <v>0.1313760883883565</v>
+        <v>0.236623480651995</v>
       </c>
       <c r="P10">
-        <v>0.1313760883883564</v>
+        <v>0.236623480651995</v>
       </c>
       <c r="Q10">
         <v>26.572249793264</v>
@@ -1066,10 +1066,10 @@
         <v>239.150248139376</v>
       </c>
       <c r="S10">
-        <v>0.08858384623742036</v>
+        <v>0.1452822481253652</v>
       </c>
       <c r="T10">
-        <v>0.08858384623742033</v>
+        <v>0.1452822481253653</v>
       </c>
     </row>
   </sheetData>
